--- a/Homework/HW03/Part2/NewRiverCompare.xlsx
+++ b/Homework/HW03/Part2/NewRiverCompare.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6863"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6863" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4.2" sheetId="1" r:id="rId1"/>
+    <sheet name="Bonus" sheetId="2" r:id="rId2"/>
+    <sheet name="Ninterval" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>MPI Processes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +37,14 @@
   </si>
   <si>
     <t>Runtime (seconds)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ninterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI Processes: 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +192,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'4.2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -217,7 +227,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>'4.2'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -247,7 +257,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>'4.2'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -658,7 +668,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'4.2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -693,7 +703,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>'4.2'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -723,7 +733,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>'4.2'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -812,6 +822,1865 @@
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>MPI Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462718031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462718031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Runtime (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472784303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Throughput vs MPI Processes Bonus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bonus!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (number/second)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bonus!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bonus!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>320698.08960599999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1942451.801406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1870723.2699490001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1312010.5715910001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4375697.2467550002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12148881.765688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12016665.059629001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6816-4BD8-BE9C-891A76E03B62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="779532528"/>
+        <c:axId val="694600768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="779532528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MPI Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694600768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="694600768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> (number/second)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779532528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Runtime vs MPI Processes Bonus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bonus!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Runtime (seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bonus!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bonus!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.3066789999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2063299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2525839999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7505739999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82473300000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29610599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29936400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C58-4A5E-BCA4-E7D2FF34A5A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="472784303"/>
+        <c:axId val="462718031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="472784303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MPI Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462718031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462718031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Runtime (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472784303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Throughput vs Ninterval</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ninterval!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (number/second)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ninterval!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ninterval!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11704129.027999001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12395197.032753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12018311.372184999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10677156.512747001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EAD-4108-8626-5969859119FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="779532528"/>
+        <c:axId val="694600768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="779532528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Ninterval</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694600768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="694600768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> (number/second)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779532528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Runtime vs Ninterval</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ninterval!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Runtime (seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ninterval!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ninterval!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.30735800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29022199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29932300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33692100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5174-42BB-84BC-3DD9AF5B509E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="472784303"/>
+        <c:axId val="462718031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="472784303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Ninterval</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -1130,6 +2999,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1647,6 +3676,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2223,6 +6316,168 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631030</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21430</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581BF8C4-6D29-4981-B7ED-95CDE2057D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>616743</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7143</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B51EF1E-2A46-4EF2-AAFC-00EE60C22903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631030</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21430</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA10430-13AD-4187-A655-3F25D360F8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>616743</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7143</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EEFD5E-6C48-44A1-A01C-0A943D06F253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2538,8 +6793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2643,4 +6898,198 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>320698.08960599999</v>
+      </c>
+      <c r="C2">
+        <v>7.3066789999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1942451.801406</v>
+      </c>
+      <c r="C3">
+        <v>1.2063299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1870723.2699490001</v>
+      </c>
+      <c r="C4">
+        <v>1.2525839999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1312010.5715910001</v>
+      </c>
+      <c r="C5">
+        <v>2.7505739999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>4375697.2467550002</v>
+      </c>
+      <c r="C6">
+        <v>0.82473300000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>12148881.765688</v>
+      </c>
+      <c r="C7">
+        <v>0.29610599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>12016665.059629001</v>
+      </c>
+      <c r="C8">
+        <v>0.29936400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.9296875" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>11704129.027999001</v>
+      </c>
+      <c r="C2">
+        <v>0.30735800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>12395197.032753</v>
+      </c>
+      <c r="C3">
+        <v>0.29022199999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>12018311.372184999</v>
+      </c>
+      <c r="C4">
+        <v>0.29932300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>10677156.512747001</v>
+      </c>
+      <c r="C5">
+        <v>0.33692100000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>